--- a/pytest_project/test_data/Testdata.xlsx
+++ b/pytest_project/test_data/Testdata.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22968" windowHeight="8772" activeTab="1"/>
+    <workbookView windowWidth="22871" windowHeight="8195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="接口测试" sheetId="1" r:id="rId1"/>
-    <sheet name="接口测试2" sheetId="2" r:id="rId2"/>
+    <sheet name="登录" sheetId="2" r:id="rId2"/>
+    <sheet name="注册" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="44">
   <si>
     <t>用例编号</t>
   </si>
@@ -162,18 +163,6 @@
   </si>
   <si>
     <t>remark</t>
-  </si>
-  <si>
-    <t>{
-"msg": "用户名不能为空",
-"msg_code": 2001
-}</t>
-  </si>
-  <si>
-    <t>{
-"msg": "用户不存在,该用户未注册",
-"msg_code": 2001 
-}</t>
   </si>
 </sst>
 </file>
@@ -909,40 +898,46 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,9 +946,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1301,66 +1293,66 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:J3"/>
+      <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.9351851851852" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.14814814814815" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.6111111111111" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.2037037037037" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.4351851851852" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.3703703703704" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.3333333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="41.1666666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="49.1481481481481" style="2" customWidth="1"/>
-    <col min="10" max="10" width="27.0555555555556" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.8796296296296" style="2" customWidth="1"/>
-    <col min="12" max="16380" width="9" style="2" customWidth="1"/>
-    <col min="16381" max="16383" width="9" style="2"/>
+    <col min="1" max="1" width="15.9351851851852" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.14814814814815" style="9" customWidth="1"/>
+    <col min="3" max="3" width="27.6111111111111" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.2037037037037" style="9" customWidth="1"/>
+    <col min="5" max="5" width="24.4351851851852" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.3703703703704" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.3333333333333" style="9" customWidth="1"/>
+    <col min="8" max="8" width="41.1666666666667" style="9" customWidth="1"/>
+    <col min="9" max="9" width="49.1481481481481" style="9" customWidth="1"/>
+    <col min="10" max="10" width="27.0555555555556" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.8796296296296" style="9" customWidth="1"/>
+    <col min="12" max="16380" width="9" style="9" customWidth="1"/>
+    <col min="16381" max="16383" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17.4" customHeight="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="62.4" customHeight="1" spans="1:11">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="9" customFormat="1" ht="62.4" customHeight="1" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1369,7 +1361,7 @@
       <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1378,10 +1370,10 @@
       <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -1389,18 +1381,18 @@
       </c>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="111" customHeight="1" spans="1:11">
-      <c r="A3" s="10" t="s">
+    <row r="3" s="9" customFormat="1" ht="111" customHeight="1" spans="1:11">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1409,10 +1401,10 @@
       <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -1421,17 +1413,17 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" ht="62.4" customHeight="1" spans="1:11">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1440,10 +1432,10 @@
       <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -1451,18 +1443,18 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="62.4" spans="1:11">
-      <c r="A5" s="10" t="s">
+    <row r="5" s="9" customFormat="1" ht="62.4" spans="1:11">
+      <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -1471,10 +1463,10 @@
       <c r="G5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -1482,11 +1474,11 @@
       </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="62.4" spans="1:11">
-      <c r="A6" s="10" t="s">
+    <row r="6" s="9" customFormat="1" ht="62.4" spans="1:11">
+      <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1495,19 +1487,19 @@
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -1515,147 +1507,165 @@
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:11">
-      <c r="A7" s="10" t="s">
+    <row r="7" s="9" customFormat="1" ht="62.4" spans="1:11">
+      <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="14" customHeight="1" spans="1:11">
-      <c r="A8" s="10" t="s">
+    <row r="8" s="9" customFormat="1" ht="14" customHeight="1" spans="1:11">
+      <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:9">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:9">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="E11" s="20"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:9">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="E12" s="20"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:9">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20"/>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:11">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="20"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:9">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="20"/>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:9">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="E16" s="20"/>
-      <c r="I16" s="21"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" s="9" customFormat="1" spans="1:9">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" s="9" customFormat="1" spans="1:9">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="E11" s="21"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" s="9" customFormat="1" spans="1:9">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="E12" s="21"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" s="9" customFormat="1" spans="1:9">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" s="9" customFormat="1" spans="1:11">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" s="9" customFormat="1" spans="1:9">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" s="9" customFormat="1" spans="1:9">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="E16" s="21"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="E17" s="20"/>
-      <c r="I17" s="21"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="E17" s="21"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="E18" s="20"/>
-      <c r="I18" s="21"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="E18" s="21"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="17"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="20"/>
-      <c r="I19" s="21"/>
+      <c r="A19" s="18"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="21"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="17"/>
-      <c r="B20" s="22"/>
-      <c r="E20" s="20"/>
-      <c r="I20" s="21"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="23"/>
+      <c r="E20" s="21"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="17"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="20"/>
-      <c r="I21" s="21"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="21"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="17"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="20"/>
-      <c r="I22" s="21"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="21"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="17"/>
-      <c r="B23" s="22"/>
-      <c r="E23" s="20"/>
-      <c r="I23" s="21"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="23"/>
+      <c r="E23" s="21"/>
+      <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="17"/>
-      <c r="B24" s="22"/>
-      <c r="E24" s="20"/>
-      <c r="I24" s="21"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="23"/>
+      <c r="E24" s="21"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="22"/>
+      <c r="B25" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1671,8 +1681,8 @@
   <sheetPr/>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1689,54 +1699,54 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17.4" customHeight="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="62.4" customHeight="1" spans="1:11">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="9" customFormat="1" ht="62.4" customHeight="1" spans="1:11">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1745,29 +1755,29 @@
       <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>44</v>
+      <c r="J2" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="K2" s="5"/>
     </row>
     <row r="3" ht="62.4" spans="1:11">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1776,19 +1786,19 @@
       <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>45</v>
+      <c r="J3" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="K3" s="5"/>
     </row>
     <row r="12" spans="10:10">
-      <c r="J12" s="9"/>
+      <c r="J12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1797,4 +1807,135 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="14.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="13.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="28.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="13.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="38.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="34.2222222222222" customWidth="1"/>
+    <col min="10" max="10" width="22.1111111111111" customWidth="1"/>
+    <col min="11" max="16384" width="8.88888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="17.4" customHeight="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="67" customHeight="1" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" ht="75" customHeight="1" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>